--- a/artfynd/A 35910-2022.xlsx
+++ b/artfynd/A 35910-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86572840</v>
+        <v>98838937</v>
       </c>
       <c r="B2" t="n">
         <v>104838</v>
@@ -715,19 +715,15 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -736,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>529960.4531559668</v>
+        <v>529961.0107277337</v>
       </c>
       <c r="R2" t="n">
-        <v>6685236.551723765</v>
+        <v>6685229.121118558</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,9 +760,14 @@
           <t>Silvberg</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>W-Sät-0040</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>1989-01-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>1989-01-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -797,19 +798,23 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
+          <t>Lennart Bratt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Stig-Åke Svenson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Sören Nyström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89351101</v>
+        <v>86572840</v>
       </c>
       <c r="B3" t="n">
         <v>104838</v>
@@ -844,27 +849,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bondhyttan, utmed vägen, Dlr</t>
+          <t>Bondhyttan, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>529960.0666793467</v>
+        <v>529960.4531559668</v>
       </c>
       <c r="R3" t="n">
-        <v>6685223.165198214</v>
+        <v>6685236.551723765</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -888,7 +900,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -898,17 +910,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Inventering artrik vägkant Trafikverket</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,26 +924,153 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
+          <t>Stig-Åke Svenson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Stig-Åke Svenson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>89351101</v>
+      </c>
+      <c r="B4" t="n">
+        <v>104838</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>219955</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Arnica montana</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Bondhyttan, utmed vägen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>529960.0666793467</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6685223.165198214</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Säter</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Silvberg</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Inventering artrik vägkant Trafikverket</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
           <t>Lennart Sundh</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>Lennart Sundh, Rolf-Göran Carlsson</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
         </is>
